--- a/test-files/adjacency-matrix-modifications/asymmetric-gene-order-output.xlsx
+++ b/test-files/adjacency-matrix-modifications/asymmetric-gene-order-output.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25725"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="15180" windowHeight="10620" tabRatio="831" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="15180" windowHeight="10620" tabRatio="831" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -184,7 +184,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -202,6 +202,12 @@
       <u/>
       <sz val="10"/>
       <color theme="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -230,8 +236,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2337,8 +2344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2366,7 +2373,7 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
         <v>17</v>
@@ -2375,19 +2382,19 @@
         <v>19</v>
       </c>
       <c r="K1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="L1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" t="s">
-        <v>25</v>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="N1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" t="s">
-        <v>29</v>
+      <c r="O1" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="P1" t="s">
         <v>31</v>
@@ -2395,8 +2402,8 @@
       <c r="Q1" t="s">
         <v>33</v>
       </c>
-      <c r="R1" t="s">
-        <v>35</v>
+      <c r="R1" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="S1" t="s">
         <v>37</v>
@@ -2405,7 +2412,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="V1" t="s">
         <v>43</v>
@@ -5892,8 +5899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -5921,7 +5928,7 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
         <v>17</v>
@@ -5930,19 +5937,19 @@
         <v>19</v>
       </c>
       <c r="K1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="L1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" t="s">
-        <v>25</v>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="N1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" t="s">
-        <v>29</v>
+      <c r="O1" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="P1" t="s">
         <v>31</v>
@@ -5950,8 +5957,8 @@
       <c r="Q1" t="s">
         <v>33</v>
       </c>
-      <c r="R1" t="s">
-        <v>35</v>
+      <c r="R1" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="S1" t="s">
         <v>37</v>
@@ -5960,7 +5967,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="V1" t="s">
         <v>43</v>
